--- a/data/breweriesByState/OR.xlsx
+++ b/data/breweriesByState/OR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NikhilStuff/Desktop/beer_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NikhilStuff/Desktop/beer_data/data/breweriesByState/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6E766C-F78C-DD45-BFA0-047C679A7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF34BFF-4012-BE40-8959-A3C825891C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4460" windowWidth="24840" windowHeight="12180" xr2:uid="{85A8A093-04AD-8E45-8F55-75D698E79041}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{85A8A093-04AD-8E45-8F55-75D698E79041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -599,14 +599,6 @@
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -629,16 +621,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -954,10 +944,13 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A48"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="159" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1200,30 +1193,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="cite_note-12" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-12" xr:uid="{CE0E6D08-0A3C-FB47-8341-C4AF4F6C13EE}"/>
-    <hyperlink ref="A3" r:id="rId2" location="cite_note-13" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-13" xr:uid="{35AD5914-29BF-494A-8941-69F3E2EC24C8}"/>
-    <hyperlink ref="A7" r:id="rId3" location="cite_note-17" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-17" xr:uid="{172EB569-31F6-4441-9324-6EA789098DCD}"/>
-    <hyperlink ref="A10" r:id="rId4" location="cite_note-20" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-20" xr:uid="{5F0C46AD-0148-EE4C-A336-85C8C2B66B6C}"/>
-    <hyperlink ref="A11" r:id="rId5" location="cite_note-21" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-21" xr:uid="{0D6C14AA-E29D-124D-8958-4407071FC2B8}"/>
-    <hyperlink ref="A13" r:id="rId6" location="cite_note-22" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-22" xr:uid="{8EFB76BE-05FA-8F40-82B9-747B43143964}"/>
-    <hyperlink ref="A14" r:id="rId7" location="cite_note-23" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-23" xr:uid="{736CCEA3-A3C2-CA46-8411-134B3BE9BFD0}"/>
-    <hyperlink ref="A18" r:id="rId8" location="cite_note-24" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-24" xr:uid="{CB0CD026-CC5E-7D4C-B7DE-E17660CB9766}"/>
-    <hyperlink ref="A19" r:id="rId9" location="cite_note-25" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-25" xr:uid="{7DB8F965-5B88-614A-81A3-7AD806E0EC91}"/>
-    <hyperlink ref="A20" r:id="rId10" location="cite_note-26" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-26" xr:uid="{B05B6CE4-257D-2D4B-9179-48F94A60A3DF}"/>
-    <hyperlink ref="A22" r:id="rId11" tooltip="Full Sail Brewing Company" display="https://en.wikipedia.org/wiki/Full_Sail_Brewing_Company" xr:uid="{9AF95B68-C7F0-9147-B515-A869F49AE739}"/>
-    <hyperlink ref="A24" r:id="rId12" location="cite_note-27" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-27" xr:uid="{F0183696-5702-474B-B1EE-885B49070653}"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://en.wikipedia.org/wiki/Hair_of_the_Dog_Brewing_Company" xr:uid="{2F830F8C-3990-9740-89F9-41615FC4D46C}"/>
-    <hyperlink ref="A27" r:id="rId14" tooltip="Laurelwood Pub and Brewery" display="https://en.wikipedia.org/wiki/Laurelwood_Pub_and_Brewery" xr:uid="{DB494565-4392-E443-8D35-F5C80473A455}"/>
-    <hyperlink ref="A29" r:id="rId15" location="cite_note-31" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-31" xr:uid="{46B547BA-E206-384A-ACE2-64D8E1856C85}"/>
-    <hyperlink ref="A32" r:id="rId16" location="cite_note-32" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-32" xr:uid="{DE687EA7-A56E-DC45-9ED2-4F8DA5B40B42}"/>
-    <hyperlink ref="A33" r:id="rId17" tooltip="Old Town Pizza" display="https://en.wikipedia.org/wiki/Old_Town_Pizza" xr:uid="{3F293F30-D28F-BB40-8BCA-0383988BCC33}"/>
-    <hyperlink ref="A37" r:id="rId18" location="cite_note-36" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-36" xr:uid="{1B995990-CD61-4C44-BA76-5160C5678429}"/>
-    <hyperlink ref="A41" r:id="rId19" location="cite_note-39" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-39" xr:uid="{E923B7CB-E425-9145-B876-4EAFC0D08735}"/>
-    <hyperlink ref="A42" r:id="rId20" location="cite_note-40" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-40" xr:uid="{9256FBD5-44ED-7D48-90F6-2122F489581F}"/>
-    <hyperlink ref="A44" r:id="rId21" location="cite_note-43" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-43" xr:uid="{56CAF286-A0BA-F245-8BA7-F25B856FB7D2}"/>
-    <hyperlink ref="A47" r:id="rId22" location="cite_note-46" display="https://en.wikipedia.org/wiki/Brewing_in_Oregon - cite_note-46" xr:uid="{D7D487F0-D8ED-DE4C-9FFD-3B41E89FE686}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>